--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-epayment.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-epayment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>locator_town</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NPE TAMAN DESA</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,8 +468,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SPRINT HIGHWAY</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -472,8 +485,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TECHNOLOGY PARK MALAYSIA 1</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -487,8 +502,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NKVE</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -502,8 +519,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SG BESI - PUCHONG BY PASS</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -517,8 +536,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BATU 3 SHAH ALAM</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -532,8 +553,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SOLARIS SERDANG</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -547,8 +570,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LINGKARAN KARAK</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -562,8 +587,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELITE LAYBY</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -577,8 +604,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SILK HIGHWAY</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -592,8 +621,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FAS FEDERAL HIGHWAY 1</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -607,8 +638,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KM 33 JALAN RAWANG KUNDANG</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -622,47 +655,104 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PSS BENTONG R &amp; R</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Lot 8207 Mukim Bentong, Daerah Bentong, Pahang, 28400 Bentong, Pahang</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Serendah, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SKUDAI R&amp;R</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>No 22 Jalan Kebangsaan 19, Taman Universiti, Skudai, 81300 Johor Bharu, Johor</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tebrau, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AIR KEROH RSA NORTH BOUND</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lebuhraya Senawang - Air-Keroh (North Bound), 78000 Alor Gajah, Melaka</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tangkak, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AYER KEROH RSA SOUTH BOUND</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lot 596, Pg 10, Lebuhraya Senawang - Air Keroh(South Bound), 78000 Alor Gajah, Melaka</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bandaraya Melaka, Melaka Raya, Malacca</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R &amp; R GUNUNG SEMANGGOL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Kawasan Rehat &amp; Rawat Gunung Semanggol (Rsa Arah Selatan), 34000 Ipoh, Perak</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bandar Baharu, Kedah</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Taiping, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BANDAR SUNWAY</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Lot 5494 &amp; 5729 Mukim 1, Bandar Sunway, 13700 Seberang Jaya, Pulau Pinang</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bandar Baharu, Kedah</t>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Parit Buntar, Perak</t>
         </is>
       </c>
     </row>
